--- a/Game_Info.xlsx
+++ b/Game_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\My Projects\React_Practice\deep-action-games-info\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\My Projects\React_Practice\deep-action-game-info\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB50FC7-F4F4-4882-AD45-6AC0FB1B1BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64BB913-B62E-453F-90E5-6B922C777410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -308,6 +308,39 @@
   </si>
   <si>
     <t>Major_Boss_Youtube_Src</t>
+  </si>
+  <si>
+    <t>Best_Boss_Youtube</t>
+  </si>
+  <si>
+    <t>Best_Boss_Youtube_Src</t>
+  </si>
+  <si>
+    <t>https://youtu.be/SgTtcXpYQTM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mHMOtKcLiow</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Rqc_ydwX2yk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/B3ogmglr3R8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/J1OlzqYr4F4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2ZlXNFznSuk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/lZbRtLbbCFI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wgHoeqneygE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zHWvIF6_rl8</t>
   </si>
 </sst>
 </file>
@@ -363,7 +396,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -381,9 +417,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12B79F8C-84DC-44E0-874A-9A759CDD86ED}" name="Table1" displayName="Table1" ref="A1:L10" totalsRowShown="0">
-  <autoFilter ref="A1:L10" xr:uid="{12B79F8C-84DC-44E0-874A-9A759CDD86ED}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12B79F8C-84DC-44E0-874A-9A759CDD86ED}" name="Table1" displayName="Table1" ref="A1:N10" totalsRowShown="0">
+  <autoFilter ref="A1:N10" xr:uid="{12B79F8C-84DC-44E0-874A-9A759CDD86ED}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{624D5C89-7E99-4581-9BD0-4049D9A62C8A}" name="ID">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
@@ -397,8 +433,12 @@
     <tableColumn id="9" xr3:uid="{F0DD116D-76CA-4167-B371-8E56D3CA7D42}" name="Official_Description"/>
     <tableColumn id="10" xr3:uid="{A547A6AD-79D3-45F9-A162-D0EE840E9195}" name="Short_Official_Description"/>
     <tableColumn id="11" xr3:uid="{1D2B61E0-0020-48BF-AAE5-CBF0D77835EF}" name="Major_Boss_Youtube"/>
-    <tableColumn id="12" xr3:uid="{9779C2C5-0EB5-41EA-B886-24CC59EFC42B}" name="Major_Boss_Youtube_Src" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{9779C2C5-0EB5-41EA-B886-24CC59EFC42B}" name="Major_Boss_Youtube_Src" dataDxfId="1">
       <calculatedColumnFormula>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00834436-58D4-4CD3-93C2-09D749F1DDC8}" name="Best_Boss_Youtube"/>
+    <tableColumn id="14" xr3:uid="{0958E706-430B-415F-84A6-E36BBE440D27}" name="Best_Boss_Youtube_Src" dataDxfId="0">
+      <calculatedColumnFormula>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -668,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +728,7 @@
     <col min="10" max="10" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,8 +765,14 @@
       <c r="L1" t="s">
         <v>83</v>
       </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A10" si="0">ROW()-1</f>
         <v>1</v>
@@ -762,8 +808,15 @@
         <f>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</f>
         <v>zvF6aTjRY1M</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</f>
+        <v>SgTtcXpYQTM</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -799,8 +852,15 @@
         <f>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</f>
         <v>hawLB0tFA7s</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</f>
+        <v>mHMOtKcLiow</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -836,8 +896,15 @@
         <f>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</f>
         <v>5G-jwS7xnRo</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</f>
+        <v>Rqc_ydwX2yk</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -876,8 +943,15 @@
         <f>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</f>
         <v>G1eSjzQEzWY</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</f>
+        <v>B3ogmglr3R8</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -913,8 +987,15 @@
         <f>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</f>
         <v>eordMvyn810</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</f>
+        <v>J1OlzqYr4F4</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -950,8 +1031,15 @@
         <f>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</f>
         <v>pAq90JUTego</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</f>
+        <v>2ZlXNFznSuk</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -990,8 +1078,15 @@
         <f>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</f>
         <v>U4jEFg2dpJ0</v>
       </c>
+      <c r="M8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</f>
+        <v>lZbRtLbbCFI</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1027,8 +1122,15 @@
         <f>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</f>
         <v>c9akEr9y7XA</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</f>
+        <v>zHWvIF6_rl8</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1057,6 +1159,13 @@
       <c r="L10" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Major_Boss_Youtube]],"https://youtu.be/","")</f>
         <v>0pos4sEF0z8</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Best_Boss_Youtube]],"https://youtu.be/","")</f>
+        <v>wgHoeqneygE</v>
       </c>
     </row>
   </sheetData>
@@ -1070,11 +1179,20 @@
     <hyperlink ref="K5" r:id="rId7" xr:uid="{6A8DA9DA-2945-4852-95E7-53F2D895DB05}"/>
     <hyperlink ref="K6" r:id="rId8" xr:uid="{B4B68C5D-8F46-4A44-8BD6-2B7286360F0D}"/>
     <hyperlink ref="K7" r:id="rId9" xr:uid="{A5FD349F-E30C-4560-8D4C-00D956E99E82}"/>
+    <hyperlink ref="M3" r:id="rId10" xr:uid="{8EDFF7E4-21ED-41A8-833E-949004FCEC7E}"/>
+    <hyperlink ref="M4" r:id="rId11" xr:uid="{B4ACBEEC-54BC-4056-B551-8D27EFCBE9AA}"/>
+    <hyperlink ref="M5" r:id="rId12" xr:uid="{BE5E723C-87D8-40F3-8D3B-96A64691714C}"/>
+    <hyperlink ref="M6" r:id="rId13" xr:uid="{CC8062E0-1003-4FBE-9A30-62A6458828EA}"/>
+    <hyperlink ref="M7" r:id="rId14" xr:uid="{72B89268-0C69-4BAC-8FBA-D7BFC9F9DB21}"/>
+    <hyperlink ref="M8" r:id="rId15" xr:uid="{57BB6D06-9E02-43D6-ADF0-5B572FA639A1}"/>
+    <hyperlink ref="M10" r:id="rId16" xr:uid="{538FE2FE-AAA4-4D02-A0B9-EE2C7471F84E}"/>
+    <hyperlink ref="M2" r:id="rId17" xr:uid="{56FEDBAE-6B16-4226-A747-B5285CCB65B2}"/>
+    <hyperlink ref="M9" r:id="rId18" xr:uid="{A25CC481-B166-46A6-930C-53D8B2CE7F0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>